--- a/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>5078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13038</v>
+        <v>13371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01245250773331932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0</v>
+        <v>0.003291591375921868</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03197186801054049</v>
+        <v>0.0327887966991144</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>5538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17791</v>
+        <v>18010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01527746039147939</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003622260801016749</v>
+        <v>0.003608275041902134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04907753820998257</v>
+        <v>0.04968002788259383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>10616</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4072</v>
+        <v>4176</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24213</v>
+        <v>23436</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01378195401404671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005286696892004124</v>
+        <v>0.005421538549130898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0314326007197774</v>
+        <v>0.03042434911030242</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18302</v>
+        <v>17987</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0153000042608159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003301553410037815</v>
+        <v>0.003327102793452782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04487992537673127</v>
+        <v>0.04410820437309677</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>22954</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12586</v>
+        <v>12085</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41193</v>
+        <v>39926</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06332001548514499</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03471964636665781</v>
+        <v>0.03333632784422493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1136330904437971</v>
+        <v>0.1101357593631815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -854,19 +854,19 @@
         <v>29193</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16749</v>
+        <v>16588</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49779</v>
+        <v>48540</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03789862202464476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02174273742942584</v>
+        <v>0.02153450719559686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06462220833660856</v>
+        <v>0.06301440032007838</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>146661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114992</v>
+        <v>115297</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178950</v>
+        <v>176838</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3596445619636671</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2819859294513455</v>
+        <v>0.2827353181918841</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4388262535250773</v>
+        <v>0.4336472021388865</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -904,19 +904,19 @@
         <v>95147</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>73031</v>
+        <v>73756</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>118696</v>
+        <v>121463</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2624664467550298</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2014567895025573</v>
+        <v>0.2034580024836145</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3274261745789215</v>
+        <v>0.3350589182958479</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>110</v>
@@ -925,19 +925,19 @@
         <v>241808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>204244</v>
+        <v>204113</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>283792</v>
+        <v>287401</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3139117304915937</v>
+        <v>0.3139117304915936</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2651474619847067</v>
+        <v>0.2649774149683489</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3684147070802596</v>
+        <v>0.3731004430645246</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>249815</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>215535</v>
+        <v>219385</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>280880</v>
+        <v>279959</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6126029260421979</v>
+        <v>0.6126029260421978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5285414161878728</v>
+        <v>0.5379808250213185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.688780542683049</v>
+        <v>0.686521994791337</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>139</v>
@@ -975,19 +975,19 @@
         <v>238872</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>212979</v>
+        <v>212321</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>263058</v>
+        <v>263851</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6589360773683456</v>
+        <v>0.6589360773683457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5875083020548658</v>
+        <v>0.5856938011331904</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7256545811774923</v>
+        <v>0.7278411434007073</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>248</v>
@@ -996,19 +996,19 @@
         <v>488687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>448358</v>
+        <v>441041</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>526958</v>
+        <v>526931</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6344076934697149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5820519227931417</v>
+        <v>0.5725542880010673</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6840902685794559</v>
+        <v>0.6840555616309341</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>7896</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3354</v>
+        <v>3141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17507</v>
+        <v>16340</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01655819729266058</v>
+        <v>0.01655819729266059</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007033053077834188</v>
+        <v>0.006586727525819986</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03671180357280781</v>
+        <v>0.03426376664518874</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -1121,19 +1121,19 @@
         <v>11926</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6159</v>
+        <v>6284</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20366</v>
+        <v>20954</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02380057229061328</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01229051989144741</v>
+        <v>0.01254006207510157</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04064460045246406</v>
+        <v>0.04181806858872153</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -1142,19 +1142,19 @@
         <v>19823</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11353</v>
+        <v>11105</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32752</v>
+        <v>31046</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02026896469140549</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01160910685973921</v>
+        <v>0.01135496677599307</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03348941618537989</v>
+        <v>0.03174562083126987</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>28793</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18040</v>
+        <v>18745</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44378</v>
+        <v>43240</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06037693586824101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0378284625034287</v>
+        <v>0.03930596229393297</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09305638501230161</v>
+        <v>0.09067084031973674</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1192,19 +1192,19 @@
         <v>35357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24434</v>
+        <v>24905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48947</v>
+        <v>48554</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07056137896027215</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0487626148113436</v>
+        <v>0.04970243505899019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09768240114448384</v>
+        <v>0.0968989085469449</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1213,19 +1213,19 @@
         <v>64150</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47721</v>
+        <v>48926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82522</v>
+        <v>84329</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06559512733319073</v>
+        <v>0.06559512733319071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0487960908421189</v>
+        <v>0.05002832516475966</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08438052965633727</v>
+        <v>0.08622815319130896</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>156728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130565</v>
+        <v>130905</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182440</v>
+        <v>183594</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3286455772577821</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2737851888305007</v>
+        <v>0.274498047683161</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3825626561264288</v>
+        <v>0.3849811595043139</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -1263,19 +1263,19 @@
         <v>138606</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118889</v>
+        <v>118440</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160380</v>
+        <v>161351</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2766118927950801</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2372636283532374</v>
+        <v>0.2363671216201782</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3200675543391644</v>
+        <v>0.3220039555108755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>232</v>
@@ -1284,19 +1284,19 @@
         <v>295333</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>261888</v>
+        <v>258715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>331010</v>
+        <v>327295</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3019851378307494</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2677865615386969</v>
+        <v>0.2645416351672091</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3384651005223439</v>
+        <v>0.3346665140761192</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>283473</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>257647</v>
+        <v>255205</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>310428</v>
+        <v>311422</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5944192895813163</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5402646604519997</v>
+        <v>0.5351438219904431</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6509425183248174</v>
+        <v>0.6530276225611577</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>288</v>
@@ -1334,19 +1334,19 @@
         <v>315194</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>292572</v>
+        <v>293407</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>336197</v>
+        <v>337172</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6290261559540343</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.583879674066633</v>
+        <v>0.5855461214394405</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6709406570931027</v>
+        <v>0.6728863132600088</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>461</v>
@@ -1355,19 +1355,19 @@
         <v>598667</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>566277</v>
+        <v>566455</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>635704</v>
+        <v>638068</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6121507701446544</v>
+        <v>0.6121507701446542</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5790317321652659</v>
+        <v>0.5792133269696412</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6500224262670222</v>
+        <v>0.652438815085467</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>22123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13524</v>
+        <v>13988</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32338</v>
+        <v>33634</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03570109123649428</v>
+        <v>0.03570109123649427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0218233374974088</v>
+        <v>0.02257233309633474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05218554762434736</v>
+        <v>0.05427595690698583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1480,19 +1480,19 @@
         <v>14134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8322</v>
+        <v>8626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21612</v>
+        <v>22287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02278369553473959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01341527693138324</v>
+        <v>0.01390396135215125</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03483655471282845</v>
+        <v>0.03592515348393613</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -1501,19 +1501,19 @@
         <v>36258</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26257</v>
+        <v>27123</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49654</v>
+        <v>50863</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02923879319196344</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02117398940837533</v>
+        <v>0.02187228768587316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04004138950698233</v>
+        <v>0.04101684920731234</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>52142</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38680</v>
+        <v>38576</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>68686</v>
+        <v>67927</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08414323967812659</v>
+        <v>0.08414323967812661</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06241975459290747</v>
+        <v>0.06225151578409702</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.110841177649006</v>
+        <v>0.1096166598737298</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -1551,19 +1551,19 @@
         <v>33549</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24243</v>
+        <v>24295</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>43530</v>
+        <v>44043</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.05407808849964941</v>
+        <v>0.0540780884996494</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03907812576983757</v>
+        <v>0.0391619409992922</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0701667483844946</v>
+        <v>0.07099360661717606</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>90</v>
@@ -1572,19 +1572,19 @@
         <v>85691</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>70252</v>
+        <v>69305</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>104956</v>
+        <v>105478</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06910228466249564</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05665229378242359</v>
+        <v>0.05588861909685112</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08463847126729902</v>
+        <v>0.08505872560546389</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>177767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153343</v>
+        <v>157007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202098</v>
+        <v>202969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2868685789475937</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2474541398219373</v>
+        <v>0.2533667043453857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3261323694258085</v>
+        <v>0.3275368183112828</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>267</v>
@@ -1622,19 +1622,19 @@
         <v>193848</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>174048</v>
+        <v>174842</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>213283</v>
+        <v>213761</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3124695778528724</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2805537547805461</v>
+        <v>0.2818335837889087</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3437972103872354</v>
+        <v>0.3445686569436947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>425</v>
@@ -1643,19 +1643,19 @@
         <v>371615</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>345297</v>
+        <v>342399</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>402679</v>
+        <v>407771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2996762136274808</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2784524196927575</v>
+        <v>0.2761159214208389</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3247262170079157</v>
+        <v>0.3288323642886066</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>367649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>343242</v>
+        <v>343637</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>393617</v>
+        <v>393011</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5932870901377855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5538994575245442</v>
+        <v>0.5545368477243118</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6351912224611532</v>
+        <v>0.634213875832664</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>515</v>
@@ -1693,19 +1693,19 @@
         <v>378843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>358947</v>
+        <v>356740</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399477</v>
+        <v>398333</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6106686381127386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5785979937327849</v>
+        <v>0.5750401558209008</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6439292196024474</v>
+        <v>0.6420849688360487</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>835</v>
@@ -1714,19 +1714,19 @@
         <v>746492</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>714177</v>
+        <v>713538</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>777436</v>
+        <v>780117</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.60198270851806</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5759230427560516</v>
+        <v>0.575408203279868</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6269359434791647</v>
+        <v>0.6290985502750704</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>35366</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26006</v>
+        <v>25096</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47209</v>
+        <v>48699</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05047775929803847</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03711876118292042</v>
+        <v>0.03582050644002577</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06738155894938344</v>
+        <v>0.06950859549556704</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1839,19 +1839,19 @@
         <v>25998</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18173</v>
+        <v>18621</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34400</v>
+        <v>34029</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03533357638574325</v>
+        <v>0.03533357638574324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02469905201233528</v>
+        <v>0.02530680272503358</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04675292707624781</v>
+        <v>0.04624770168904249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -1860,19 +1860,19 @@
         <v>61364</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48216</v>
+        <v>49347</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76682</v>
+        <v>77566</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04272025042411495</v>
+        <v>0.04272025042411497</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03356682628793146</v>
+        <v>0.03435437716310362</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05338476838886124</v>
+        <v>0.05400013768451485</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>48612</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36385</v>
+        <v>35116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65405</v>
+        <v>62687</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06938390738977164</v>
+        <v>0.06938390738977163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0519324614946136</v>
+        <v>0.05012207781553044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09335329329652867</v>
+        <v>0.08947402479676454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -1910,19 +1910,19 @@
         <v>46771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35736</v>
+        <v>37329</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58192</v>
+        <v>58864</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06356529827166472</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0485680034155295</v>
+        <v>0.05073377307291817</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0790882170095797</v>
+        <v>0.08000121764852539</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -1931,19 +1931,19 @@
         <v>95382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79686</v>
+        <v>80125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>113738</v>
+        <v>116360</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06640336283817615</v>
+        <v>0.06640336283817617</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05547586630647178</v>
+        <v>0.05578138164534081</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07918213868396054</v>
+        <v>0.08100758135799205</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>208387</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>183333</v>
+        <v>182942</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>233680</v>
+        <v>232049</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2974341975261878</v>
+        <v>0.2974341975261877</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2616733996761388</v>
+        <v>0.2611157714484414</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3335344292017141</v>
+        <v>0.3312065413810555</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>391</v>
@@ -1981,19 +1981,19 @@
         <v>253312</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>233292</v>
+        <v>232094</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>272849</v>
+        <v>273807</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3442717989869169</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3170624976316959</v>
+        <v>0.3154346690530781</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3708234500745985</v>
+        <v>0.3721259680414344</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>591</v>
@@ -2002,19 +2002,19 @@
         <v>461700</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>430072</v>
+        <v>430394</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>493247</v>
+        <v>493583</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3214264532371188</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2994082250260915</v>
+        <v>0.2996323455483937</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3433892744642085</v>
+        <v>0.3436228004739205</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>408252</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>380741</v>
+        <v>382203</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>433884</v>
+        <v>435872</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5827041357860022</v>
+        <v>0.5827041357860021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5434363068842282</v>
+        <v>0.5455240211303612</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6192888537346635</v>
+        <v>0.6221262142936788</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>640</v>
@@ -2052,19 +2052,19 @@
         <v>409710</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>388765</v>
+        <v>388607</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>432434</v>
+        <v>433581</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5568293263556752</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5283631553908418</v>
+        <v>0.5281484219959159</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5877131991959648</v>
+        <v>0.5892724725455446</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1025</v>
@@ -2073,19 +2073,19 @@
         <v>817962</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>783220</v>
+        <v>785685</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>852815</v>
+        <v>854475</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.56944993350059</v>
+        <v>0.5694499335005901</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5452631364576441</v>
+        <v>0.5469787393781335</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5937135720533498</v>
+        <v>0.5948692849270064</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>38714</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28728</v>
+        <v>28269</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50743</v>
+        <v>50448</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06353300644195282</v>
+        <v>0.06353300644195281</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04714524322393891</v>
+        <v>0.04639173709432842</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08327383876049597</v>
+        <v>0.0827897649094556</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>45</v>
@@ -2198,19 +2198,19 @@
         <v>29489</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21812</v>
+        <v>22432</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38896</v>
+        <v>39811</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04854080710749207</v>
+        <v>0.04854080710749208</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03590310665438989</v>
+        <v>0.0369235312384331</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06402516793622898</v>
+        <v>0.0655313342005379</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -2219,19 +2219,19 @@
         <v>68203</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>55534</v>
+        <v>54433</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84358</v>
+        <v>82501</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05604819613689243</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04563707399577122</v>
+        <v>0.04473269615250941</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06932442249880967</v>
+        <v>0.06779862325593834</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>64597</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51296</v>
+        <v>52214</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>78811</v>
+        <v>81200</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.106010570877327</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08418123838595259</v>
+        <v>0.0856883003948903</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1293369616833361</v>
+        <v>0.1332575905351393</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>100</v>
@@ -2269,19 +2269,19 @@
         <v>61906</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50792</v>
+        <v>51811</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74579</v>
+        <v>74718</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1019000955728644</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08360625209482977</v>
+        <v>0.08528434220534524</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1227604519207367</v>
+        <v>0.1229898800031711</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>174</v>
@@ -2290,19 +2290,19 @@
         <v>126503</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108690</v>
+        <v>108782</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>145179</v>
+        <v>146383</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1039584284777246</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08932001369502444</v>
+        <v>0.0893956301849675</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1193066354862169</v>
+        <v>0.1202953099045787</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>197109</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>175711</v>
+        <v>172688</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>218448</v>
+        <v>220959</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3234763132767748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2883607657415967</v>
+        <v>0.2833995023126295</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3584958194117354</v>
+        <v>0.3626160957785767</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>381</v>
@@ -2340,19 +2340,19 @@
         <v>230788</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>213263</v>
+        <v>212689</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>249798</v>
+        <v>250889</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.379889230026493</v>
+        <v>0.3798892300264931</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3510412932277574</v>
+        <v>0.3500973716586863</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4111813891373731</v>
+        <v>0.4129765879428144</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>593</v>
@@ -2361,19 +2361,19 @@
         <v>427897</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>397280</v>
+        <v>399106</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>457563</v>
+        <v>456220</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3516402918370288</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3264792925936569</v>
+        <v>0.3279800838630101</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3760193674277749</v>
+        <v>0.3749154562217034</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>308926</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>284409</v>
+        <v>285641</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>330724</v>
+        <v>333236</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5069801094039453</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4667439460257765</v>
+        <v>0.4687672820396543</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5427516783269094</v>
+        <v>0.5468743733617681</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>474</v>
@@ -2411,19 +2411,19 @@
         <v>285331</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>266925</v>
+        <v>266769</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>306079</v>
+        <v>305455</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.4696698672931504</v>
+        <v>0.4696698672931505</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4393727166064322</v>
+        <v>0.4391155711678265</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5038227330826343</v>
+        <v>0.5027953283442049</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>809</v>
@@ -2432,19 +2432,19 @@
         <v>594257</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>564093</v>
+        <v>562971</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>625031</v>
+        <v>624691</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.4883530835483544</v>
+        <v>0.4883530835483543</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4635645568288758</v>
+        <v>0.4626419675526493</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5136423405159523</v>
+        <v>0.5133631512571998</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>15530</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10145</v>
+        <v>10004</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23176</v>
+        <v>22544</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03814958602894161</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0249222575676764</v>
+        <v>0.02457538979153575</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05693149800319802</v>
+        <v>0.05538007371966483</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -2557,19 +2557,19 @@
         <v>24598</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17997</v>
+        <v>18035</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32397</v>
+        <v>32484</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.05601156798473347</v>
+        <v>0.05601156798473345</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04098027369263833</v>
+        <v>0.04106681277375834</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07377013153168466</v>
+        <v>0.07396855301756418</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>66</v>
@@ -2578,19 +2578,19 @@
         <v>40128</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31523</v>
+        <v>30377</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50696</v>
+        <v>50213</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04741920655182934</v>
+        <v>0.04741920655182935</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03725090892207416</v>
+        <v>0.03589583474773145</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05990681844547339</v>
+        <v>0.05933658647772425</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>34587</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25354</v>
+        <v>26002</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44011</v>
+        <v>45039</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08496357278288193</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06228152674966839</v>
+        <v>0.0638738598700766</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1081133047092371</v>
+        <v>0.1106384742637336</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>115</v>
@@ -2628,19 +2628,19 @@
         <v>63072</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>52209</v>
+        <v>53243</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>73860</v>
+        <v>74353</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1436166085565725</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1188828253636969</v>
+        <v>0.1212355193039279</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1681831060330963</v>
+        <v>0.1693049154227003</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>165</v>
@@ -2649,19 +2649,19 @@
         <v>97659</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>83165</v>
+        <v>84317</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>113318</v>
+        <v>112465</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1154020417883428</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09827504087591109</v>
+        <v>0.09963629397361295</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1339072535193167</v>
+        <v>0.1328992948957415</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>144662</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>128071</v>
+        <v>128447</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>159372</v>
+        <v>161932</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3553641909530372</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3146096266202768</v>
+        <v>0.3155330035930414</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3915012672082096</v>
+        <v>0.3977897816620399</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>307</v>
@@ -2699,19 +2699,19 @@
         <v>164656</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>149572</v>
+        <v>149622</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>178143</v>
+        <v>179248</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3749282884761567</v>
+        <v>0.3749282884761566</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3405819405168674</v>
+        <v>0.3406954800123331</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4056395232269577</v>
+        <v>0.4081551671214992</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>509</v>
@@ -2720,19 +2720,19 @@
         <v>309317</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>287259</v>
+        <v>288883</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>331426</v>
+        <v>331868</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3655171381657781</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3394507433038257</v>
+        <v>0.3413701416866188</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3916429969671757</v>
+        <v>0.3921644822824345</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>212301</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>195130</v>
+        <v>195044</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>227464</v>
+        <v>229313</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5215226502351392</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4793394982145323</v>
+        <v>0.4791300541519654</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.558769326229692</v>
+        <v>0.5633118582615857</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>362</v>
@@ -2770,19 +2770,19 @@
         <v>186840</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>172718</v>
+        <v>173349</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>200975</v>
+        <v>203246</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4254435349825375</v>
+        <v>0.4254435349825373</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3932869932932143</v>
+        <v>0.3947235733218225</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4576290408906908</v>
+        <v>0.462800468121643</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>657</v>
@@ -2791,19 +2791,19 @@
         <v>399142</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>375579</v>
+        <v>377348</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>421928</v>
+        <v>421629</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4716616134940497</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4438173205537588</v>
+        <v>0.4459081839156812</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4985882989355202</v>
+        <v>0.4982342551010292</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>23474</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16846</v>
+        <v>15846</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>32399</v>
+        <v>31942</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.07589968627151934</v>
+        <v>0.07589968627151936</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0544713210820915</v>
+        <v>0.05123713116158583</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1047578851620601</v>
+        <v>0.1032809585876851</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>93</v>
@@ -2916,19 +2916,19 @@
         <v>48866</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39336</v>
+        <v>38347</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>59091</v>
+        <v>57988</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1056292798879984</v>
+        <v>0.1056292798879983</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08502958935277782</v>
+        <v>0.08289130841947093</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1277306697449198</v>
+        <v>0.1253473288489654</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>131</v>
@@ -2937,19 +2937,19 @@
         <v>72340</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>61206</v>
+        <v>60983</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>87475</v>
+        <v>86179</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.09371764072275024</v>
+        <v>0.09371764072275023</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07929284585945708</v>
+        <v>0.079005135835627</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1133256417490978</v>
+        <v>0.111645988295968</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>33889</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>25897</v>
+        <v>26286</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44156</v>
+        <v>44194</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1095756853572151</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08373578458093282</v>
+        <v>0.08499187362136756</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1427747740227025</v>
+        <v>0.1428983479559798</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>159</v>
@@ -2987,19 +2987,19 @@
         <v>80648</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>71406</v>
+        <v>70003</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>93152</v>
+        <v>92714</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1743288940125078</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1543505342398718</v>
+        <v>0.1513182991904725</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2013575885942032</v>
+        <v>0.2004100347624462</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>213</v>
@@ -3008,19 +3008,19 @@
         <v>114537</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>99162</v>
+        <v>100704</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>129881</v>
+        <v>130528</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1483844809726225</v>
+        <v>0.1483844809726226</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1284657774335798</v>
+        <v>0.1304643377938259</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1682635100995168</v>
+        <v>0.1691018796787427</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>113100</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>99226</v>
+        <v>98636</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>128198</v>
+        <v>126796</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.365698877877195</v>
+        <v>0.3656988778771951</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3208367560684262</v>
+        <v>0.3189305589503514</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.414515224690464</v>
+        <v>0.4099826585494295</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>334</v>
@@ -3058,19 +3058,19 @@
         <v>177441</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>162766</v>
+        <v>160484</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>194640</v>
+        <v>192751</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3835566105351236</v>
+        <v>0.3835566105351235</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3518349439397053</v>
+        <v>0.3469024221717512</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4207340016928692</v>
+        <v>0.4166498216433864</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>497</v>
@@ -3079,19 +3079,19 @@
         <v>290541</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>271091</v>
+        <v>268455</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>315189</v>
+        <v>310090</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3764016231352014</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3512036757599357</v>
+        <v>0.3477887345239739</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4083335734498839</v>
+        <v>0.4017265528641136</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>138809</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>123389</v>
+        <v>124538</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>153705</v>
+        <v>153740</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.4488257504940705</v>
+        <v>0.4488257504940706</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3989658377616083</v>
+        <v>0.4026812668728681</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4969906444725734</v>
+        <v>0.4971033199002411</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>292</v>
@@ -3129,19 +3129,19 @@
         <v>155665</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>139923</v>
+        <v>139180</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>169404</v>
+        <v>169988</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3364852155643704</v>
+        <v>0.3364852155643703</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3024562184836764</v>
+        <v>0.3008505962571442</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3661830769147545</v>
+        <v>0.3674459156385491</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>494</v>
@@ -3150,19 +3150,19 @@
         <v>294474</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>272081</v>
+        <v>275598</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>314466</v>
+        <v>315518</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3814962551694257</v>
+        <v>0.3814962551694256</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3524862950812864</v>
+        <v>0.3570424796506714</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4073964672799871</v>
+        <v>0.408759492650153</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>148181</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>127349</v>
+        <v>124412</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>173239</v>
+        <v>170511</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04196939560380404</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03606920439955062</v>
+        <v>0.03523754369452346</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0490666391392745</v>
+        <v>0.04829413382377568</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>253</v>
@@ -3275,19 +3275,19 @@
         <v>160551</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>140206</v>
+        <v>141753</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>181829</v>
+        <v>183656</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.04305394431604317</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03759816022579602</v>
+        <v>0.03801300370127016</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04876010731776365</v>
+        <v>0.04924993445631787</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>420</v>
@@ -3296,19 +3296,19 @@
         <v>308731</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>278371</v>
+        <v>276868</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>338947</v>
+        <v>339443</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04252648818149524</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03834448525957444</v>
+        <v>0.03813750780618121</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04668854255856134</v>
+        <v>0.04675694753516094</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>268859</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>235591</v>
+        <v>239882</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>300576</v>
+        <v>300726</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07614927417463377</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06672669116883716</v>
+        <v>0.06794220468373606</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08513247055323712</v>
+        <v>0.08517501389061663</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>530</v>
@@ -3346,19 +3346,19 @@
         <v>344256</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>315234</v>
+        <v>317138</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>378680</v>
+        <v>377446</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09231714885433338</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08453433213764086</v>
+        <v>0.08504511031394744</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1015484067626119</v>
+        <v>0.1012173414596201</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>823</v>
@@ -3367,19 +3367,19 @@
         <v>613115</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>567939</v>
+        <v>575528</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>655719</v>
+        <v>664358</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0844541136709681</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0782313463541964</v>
+        <v>0.07927667640235336</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0903226297634112</v>
+        <v>0.0915126677226463</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>1144414</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1083993</v>
+        <v>1080911</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1202392</v>
+        <v>1205771</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3241341831157277</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3070211535158607</v>
+        <v>0.3061482345286492</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3405553278499661</v>
+        <v>0.341512530813133</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1862</v>
@@ -3417,19 +3417,19 @@
         <v>1253798</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1203108</v>
+        <v>1205647</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1304276</v>
+        <v>1307228</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3362235035589667</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3226304811989364</v>
+        <v>0.3233113556114928</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3497600513898684</v>
+        <v>0.3505516541429334</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2957</v>
@@ -3438,19 +3438,19 @@
         <v>2398212</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2319803</v>
+        <v>2315407</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2475992</v>
+        <v>2476131</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3303440200850181</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3195435858363626</v>
+        <v>0.3189380327577883</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3410579557074108</v>
+        <v>0.3410771338891713</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>1969227</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1900559</v>
+        <v>1902302</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2034483</v>
+        <v>2034797</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5577471471058344</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5382983919356567</v>
+        <v>0.5387918551349018</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5762297477866007</v>
+        <v>0.5763188108188676</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2710</v>
@@ -3488,19 +3488,19 @@
         <v>1970455</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1919236</v>
+        <v>1910914</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2024582</v>
+        <v>2021535</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5284054032706568</v>
+        <v>0.5284054032706569</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5146701210218427</v>
+        <v>0.5124384318672168</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5429202355507832</v>
+        <v>0.5421032305969388</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4529</v>
@@ -3509,19 +3509,19 @@
         <v>3939682</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3857186</v>
+        <v>3860551</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4026627</v>
+        <v>4030302</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5426753780625185</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5313118307892806</v>
+        <v>0.5317753917266821</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5546516205255065</v>
+        <v>0.5551578359782025</v>
       </c>
     </row>
     <row r="43">
